--- a/정기/하루 재화 정리 최종.xlsx
+++ b/정기/하루 재화 정리 최종.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JJG\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F580541-0CBF-4FDA-B256-77D7E90D391C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88A6D78-D384-4E4E-834A-D7D5EAA6358F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="345" windowWidth="17205" windowHeight="15480" activeTab="4" xr2:uid="{D2D37F6D-4275-4991-B10D-42AEDB9E4AB5}"/>
+    <workbookView xWindow="40320" yWindow="0" windowWidth="23085" windowHeight="15480" activeTab="6" xr2:uid="{D2D37F6D-4275-4991-B10D-42AEDB9E4AB5}"/>
   </bookViews>
   <sheets>
     <sheet name="계산" sheetId="1" r:id="rId1"/>
     <sheet name="오프라인보상" sheetId="2" r:id="rId2"/>
     <sheet name="기존 재화 가치" sheetId="5" r:id="rId3"/>
     <sheet name="유저 일일 분석" sheetId="4" r:id="rId4"/>
-    <sheet name="통계" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId5"/>
+    <sheet name="통계" sheetId="6" r:id="rId6"/>
+    <sheet name="소환" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -62,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="220">
   <si>
     <t>스테이지</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -876,6 +878,38 @@
     <t>5레벨</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>고려</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평균조각</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9이찰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현질 1~3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아(천만)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>총조각수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1106,7 +1140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,9 +1234,6 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1211,6 +1242,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -51749,8 +51786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2486540-BD10-4EAE-A599-377F4990CA9A}">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -51789,18 +51826,18 @@
       <c r="L1" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="31" t="s">
+      <c r="M1" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="31"/>
+      <c r="N1" s="35"/>
       <c r="O1" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="S1" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
       <c r="V1" t="s">
         <v>134</v>
       </c>
@@ -52372,10 +52409,39 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82EBAC8-3689-4579-883C-82D442363E10}">
+  <dimension ref="D5:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{887CF9C8-EF0A-43A4-91A3-BE8124351CBB}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -52386,18 +52452,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="31" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="32">
         <v>1667</v>
       </c>
       <c r="F2" t="s">
@@ -52405,10 +52471,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="32">
         <v>1597</v>
       </c>
       <c r="E3">
@@ -52426,10 +52492,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>1578</v>
       </c>
       <c r="E4">
@@ -52447,10 +52513,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="32">
         <v>1528</v>
       </c>
       <c r="E5">
@@ -52468,10 +52534,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>1423</v>
       </c>
       <c r="E6">
@@ -52489,10 +52555,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="32">
         <v>1401</v>
       </c>
       <c r="E7">
@@ -52510,10 +52576,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>1339</v>
       </c>
       <c r="E8">
@@ -52531,17 +52597,17 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="32">
         <v>1298</v>
       </c>
       <c r="F9">
         <f>SUM(F3:F8)</f>
         <v>100.00000000000001</v>
       </c>
-      <c r="H9" s="34">
+      <c r="H9" s="33">
         <f>SUM(H3:H8)</f>
         <v>4.4633500000000002</v>
       </c>
@@ -52561,18 +52627,18 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>1293</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="32">
         <v>1279</v>
       </c>
       <c r="F11" t="s">
@@ -52580,10 +52646,10 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>1277</v>
       </c>
       <c r="E12">
@@ -52601,10 +52667,10 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="32">
         <v>1145</v>
       </c>
       <c r="E13">
@@ -52622,10 +52688,10 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>1143</v>
       </c>
       <c r="E14">
@@ -52643,10 +52709,10 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
-        <v>14</v>
-      </c>
-      <c r="B15" s="33">
+      <c r="A15" s="32">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32">
         <v>1118</v>
       </c>
       <c r="E15">
@@ -52664,10 +52730,10 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="32">
         <v>1096</v>
       </c>
       <c r="E16">
@@ -52685,10 +52751,10 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33">
+      <c r="A17" s="32">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32">
         <v>1095</v>
       </c>
       <c r="E17">
@@ -52706,13 +52772,13 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33">
+      <c r="A18" s="32">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32">
         <v>1074</v>
       </c>
-      <c r="H18" s="34">
+      <c r="H18" s="33">
         <f>SUM(H12:H17)</f>
         <v>4.0990599999999997</v>
       </c>
@@ -52732,18 +52798,18 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
+      <c r="A19" s="32">
         <v>18</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="32">
         <v>1001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="32">
         <v>0</v>
       </c>
     </row>
@@ -52856,7 +52922,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H28" s="34">
+      <c r="H28" s="33">
         <f>SUM(H22:H27)</f>
         <v>3.7347700000000001</v>
       </c>
@@ -52903,6 +52969,74 @@
       <c r="K36">
         <f>K35*4</f>
         <v>26.222222222222221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D7AE86-EF06-476F-A308-7B8157BFE0D9}">
+  <dimension ref="D1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2">
+        <v>10000000</v>
+      </c>
+      <c r="F2" s="34">
+        <v>16968.669999999998</v>
+      </c>
+      <c r="G2">
+        <v>29000</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3">
+        <v>10000000</v>
+      </c>
+      <c r="F3">
+        <v>12000</v>
+      </c>
+      <c r="G3">
+        <v>28000</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
